--- a/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
+++ b/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\MPoEFUbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\trans\MPoEFUbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AB6F7F-6703-4EC9-9AC9-D95123198F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6339302B-2053-4EE3-9AF0-80DACAD05672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -828,21 +828,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A53" sqref="A53:XFD56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="69.28515625" customWidth="1"/>
+    <col min="2" max="2" width="69.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,285 +850,285 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" s="7">
         <v>44317</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -1151,12 +1151,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -2380,7 +2380,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2395,12 +2395,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -3624,12 +3624,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -4855,12 +4855,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -6121,12 +6121,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -7387,12 +7387,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -8527,7 +8527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -8651,12 +8651,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -8766,7 +8766,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -9756,7 +9756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -9880,12 +9880,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -10435,7 +10435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -10985,7 +10985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -11109,7 +11109,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11119,21 +11119,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0.15</v>
       </c>
@@ -11141,7 +11141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11149,12 +11149,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2021</v>
       </c>
@@ -11162,7 +11162,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0</v>
       </c>
@@ -11170,12 +11170,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -11183,20 +11183,20 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0</v>
       </c>
@@ -11439,11 +11439,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -11550,7 +11550,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0</v>
       </c>
@@ -11571,132 +11571,132 @@
       </c>
       <c r="G17" cm="1">
         <f t="array" ref="G17">TREND($A$10:$B$10,$A$9:$B$9,G16)</f>
-        <v>1.7241379310341642E-2</v>
+        <v>3.4482758620683285E-2</v>
       </c>
       <c r="H17" cm="1">
         <f t="array" ref="H17">TREND($A$10:$B$10,$A$9:$B$9,H16)</f>
-        <v>3.448275862069039E-2</v>
+        <v>6.896551724138078E-2</v>
       </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">TREND($A$10:$B$10,$A$9:$B$9,I16)</f>
-        <v>5.1724137931032033E-2</v>
+        <v>0.10344827586206407</v>
       </c>
       <c r="J17" cm="1">
         <f t="array" ref="J17">TREND($A$10:$B$10,$A$9:$B$9,J16)</f>
-        <v>6.896551724138078E-2</v>
+        <v>0.13793103448276156</v>
       </c>
       <c r="K17" cm="1">
         <f t="array" ref="K17">TREND($A$10:$B$10,$A$9:$B$9,K16)</f>
-        <v>8.6206896551722423E-2</v>
+        <v>0.17241379310344485</v>
       </c>
       <c r="L17" cm="1">
         <f t="array" ref="L17">TREND($A$10:$B$10,$A$9:$B$9,L16)</f>
-        <v>0.10344827586207117</v>
+        <v>0.20689655172414234</v>
       </c>
       <c r="M17" cm="1">
         <f t="array" ref="M17">TREND($A$10:$B$10,$A$9:$B$9,M16)</f>
-        <v>0.12068965517241281</v>
+        <v>0.24137931034482563</v>
       </c>
       <c r="N17" cm="1">
         <f t="array" ref="N17">TREND($A$10:$B$10,$A$9:$B$9,N16)</f>
-        <v>0.13793103448275446</v>
+        <v>0.27586206896550891</v>
       </c>
       <c r="O17" cm="1">
         <f t="array" ref="O17">TREND($A$10:$B$10,$A$9:$B$9,O16)</f>
-        <v>0.1551724137931032</v>
+        <v>0.31034482758620641</v>
       </c>
       <c r="P17" cm="1">
         <f t="array" ref="P17">TREND($A$10:$B$10,$A$9:$B$9,P16)</f>
-        <v>0.17241379310344485</v>
+        <v>0.34482758620688969</v>
       </c>
       <c r="Q17" cm="1">
         <f t="array" ref="Q17">TREND($A$10:$B$10,$A$9:$B$9,Q16)</f>
-        <v>0.18965517241379359</v>
+        <v>0.37931034482758719</v>
       </c>
       <c r="R17" cm="1">
         <f t="array" ref="R17">TREND($A$10:$B$10,$A$9:$B$9,R16)</f>
-        <v>0.20689655172413524</v>
+        <v>0.41379310344827047</v>
       </c>
       <c r="S17" cm="1">
         <f t="array" ref="S17">TREND($A$10:$B$10,$A$9:$B$9,S16)</f>
-        <v>0.22413793103448398</v>
+        <v>0.44827586206896797</v>
       </c>
       <c r="T17" cm="1">
         <f t="array" ref="T17">TREND($A$10:$B$10,$A$9:$B$9,T16)</f>
-        <v>0.24137931034482563</v>
+        <v>0.48275862068965125</v>
       </c>
       <c r="U17" cm="1">
         <f t="array" ref="U17">TREND($A$10:$B$10,$A$9:$B$9,U16)</f>
-        <v>0.25862068965517437</v>
+        <v>0.51724137931034875</v>
       </c>
       <c r="V17" cm="1">
         <f t="array" ref="V17">TREND($A$10:$B$10,$A$9:$B$9,V16)</f>
-        <v>0.27586206896551602</v>
+        <v>0.55172413793103203</v>
       </c>
       <c r="W17" cm="1">
         <f t="array" ref="W17">TREND($A$10:$B$10,$A$9:$B$9,W16)</f>
-        <v>0.29310344827586476</v>
+        <v>0.58620689655172953</v>
       </c>
       <c r="X17" cm="1">
         <f t="array" ref="X17">TREND($A$10:$B$10,$A$9:$B$9,X16)</f>
-        <v>0.31034482758620641</v>
+        <v>0.62068965517241281</v>
       </c>
       <c r="Y17" cm="1">
         <f t="array" ref="Y17">TREND($A$10:$B$10,$A$9:$B$9,Y16)</f>
-        <v>0.32758620689654805</v>
+        <v>0.6551724137930961</v>
       </c>
       <c r="Z17" cm="1">
         <f t="array" ref="Z17">TREND($A$10:$B$10,$A$9:$B$9,Z16)</f>
-        <v>0.3448275862068968</v>
+        <v>0.68965517241379359</v>
       </c>
       <c r="AA17" cm="1">
         <f t="array" ref="AA17">TREND($A$10:$B$10,$A$9:$B$9,AA16)</f>
-        <v>0.36206896551723844</v>
+        <v>0.72413793103447688</v>
       </c>
       <c r="AB17" cm="1">
         <f t="array" ref="AB17">TREND($A$10:$B$10,$A$9:$B$9,AB16)</f>
-        <v>0.37931034482758719</v>
+        <v>0.75862068965517437</v>
       </c>
       <c r="AC17" cm="1">
         <f t="array" ref="AC17">TREND($A$10:$B$10,$A$9:$B$9,AC16)</f>
-        <v>0.39655172413792883</v>
+        <v>0.79310344827585766</v>
       </c>
       <c r="AD17" cm="1">
         <f t="array" ref="AD17">TREND($A$10:$B$10,$A$9:$B$9,AD16)</f>
-        <v>0.41379310344827758</v>
+        <v>0.82758620689655515</v>
       </c>
       <c r="AE17" cm="1">
         <f t="array" ref="AE17">TREND($A$10:$B$10,$A$9:$B$9,AE16)</f>
-        <v>0.43103448275861922</v>
+        <v>0.86206896551723844</v>
       </c>
       <c r="AF17" cm="1">
         <f t="array" ref="AF17">TREND($A$10:$B$10,$A$9:$B$9,AF16)</f>
-        <v>0.44827586206896797</v>
+        <v>0.89655172413793593</v>
       </c>
       <c r="AG17" cm="1">
         <f t="array" ref="AG17">TREND($A$10:$B$10,$A$9:$B$9,AG16)</f>
-        <v>0.46551724137930961</v>
+        <v>0.93103448275861922</v>
       </c>
       <c r="AH17" cm="1">
         <f t="array" ref="AH17">TREND($A$10:$B$10,$A$9:$B$9,AH16)</f>
-        <v>0.48275862068965125</v>
+        <v>0.9655172413793025</v>
       </c>
       <c r="AI17" cm="1">
         <f t="array" ref="AI17">TREND($A$10:$B$10,$A$9:$B$9,AI16)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
     </row>
@@ -11715,12 +11715,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -11830,7 +11830,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -12050,7 +12050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -12270,7 +12270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -12490,7 +12490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -12600,7 +12600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -12710,7 +12710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -12820,7 +12820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -12944,12 +12944,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -13059,7 +13059,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -13169,7 +13169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -13279,7 +13279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13389,7 +13389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -13499,7 +13499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -13609,7 +13609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -13719,7 +13719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -13829,7 +13829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -13939,7 +13939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -14049,7 +14049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -14175,12 +14175,12 @@
       <selection activeCell="B6" sqref="B6:AJ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -14290,7 +14290,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -14400,7 +14400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -14510,7 +14510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -14730,7 +14730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -14875,7 +14875,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -14985,7 +14985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -15095,7 +15095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -15205,7 +15205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -15315,7 +15315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -15441,12 +15441,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -15556,7 +15556,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -15666,7 +15666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -15776,7 +15776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -15886,7 +15886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -15996,7 +15996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -16106,7 +16106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -16251,7 +16251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -16361,7 +16361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -16471,7 +16471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -16581,7 +16581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -16707,12 +16707,12 @@
       <selection activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -16822,7 +16822,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -16932,7 +16932,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -17042,7 +17042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -17152,7 +17152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -17262,7 +17262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -17372,7 +17372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -17517,7 +17517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -17627,7 +17627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -17737,7 +17737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -17847,7 +17847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -17971,12 +17971,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -18086,7 +18086,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -18196,7 +18196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -18306,7 +18306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -18416,7 +18416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -18526,7 +18526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -18636,7 +18636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -18856,7 +18856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -18966,7 +18966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -19076,7 +19076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -19200,12 +19200,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -19315,7 +19315,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -19425,7 +19425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -19535,7 +19535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -19645,7 +19645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -19755,7 +19755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -19865,7 +19865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -19975,7 +19975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -20085,7 +20085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -20195,7 +20195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -20305,7 +20305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -20429,7 +20429,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20444,12 +20444,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -20559,7 +20559,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -20669,7 +20669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -20779,7 +20779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -20889,7 +20889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -20999,7 +20999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -21109,7 +21109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -21219,7 +21219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -21329,7 +21329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -21439,7 +21439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -21549,7 +21549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -21673,12 +21673,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -21788,7 +21788,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -21898,7 +21898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -22008,7 +22008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -22118,7 +22118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -22228,7 +22228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -22338,7 +22338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -22448,7 +22448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -22558,7 +22558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -22668,7 +22668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -22778,7 +22778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -22902,7 +22902,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22919,12 +22919,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -23034,7 +23034,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -23144,7 +23144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -23254,7 +23254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -23364,7 +23364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -23474,7 +23474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -23619,7 +23619,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -23729,7 +23729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -23839,7 +23839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -24059,7 +24059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -24185,12 +24185,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -24300,7 +24300,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -24410,7 +24410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -24520,7 +24520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -24630,7 +24630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -24740,7 +24740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -24995,7 +24995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -25105,7 +25105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -25215,7 +25215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -25325,7 +25325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -25451,12 +25451,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -25566,7 +25566,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -25676,7 +25676,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -25896,7 +25896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -26006,7 +26006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -26116,7 +26116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -26261,7 +26261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -26481,7 +26481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -26591,7 +26591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -26715,12 +26715,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -26830,7 +26830,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -27380,7 +27380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -27490,7 +27490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -27820,7 +27820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -27944,12 +27944,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -28059,7 +28059,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -28169,7 +28169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -28279,7 +28279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -28499,7 +28499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -28719,7 +28719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -28829,7 +28829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -28939,7 +28939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -29173,7 +29173,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29188,12 +29188,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -29300,7 +29300,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -29407,7 +29407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -29514,7 +29514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -29621,7 +29621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -29728,7 +29728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -29835,7 +29835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -29942,7 +29942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -30156,7 +30156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -30263,7 +30263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -30384,12 +30384,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -30496,7 +30496,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -30603,7 +30603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -30710,7 +30710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -30817,7 +30817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -30924,7 +30924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -31031,7 +31031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -31138,7 +31138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -31245,7 +31245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -31352,7 +31352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -31459,7 +31459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -31582,12 +31582,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -31694,7 +31694,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -31801,7 +31801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -31908,7 +31908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -32015,7 +32015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -32122,7 +32122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -32263,7 +32263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -32370,7 +32370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -32477,7 +32477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -32584,7 +32584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -32691,7 +32691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -32814,12 +32814,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -32926,7 +32926,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -33033,7 +33033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -33140,7 +33140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -33247,7 +33247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -33354,7 +33354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -33461,7 +33461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -33602,7 +33602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -33709,7 +33709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -33816,7 +33816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -33923,7 +33923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -34044,12 +34044,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -34159,7 +34159,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -34269,7 +34269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -34379,7 +34379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -34489,7 +34489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -34599,7 +34599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -34709,7 +34709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -34819,7 +34819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -34929,7 +34929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -35039,7 +35039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -35149,7 +35149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -35273,12 +35273,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -35385,7 +35385,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -35599,7 +35599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -35706,7 +35706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -35813,7 +35813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -35920,7 +35920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -36027,7 +36027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -36134,7 +36134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -36241,7 +36241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -36348,7 +36348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -36469,7 +36469,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36484,12 +36484,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -36596,7 +36596,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -36703,7 +36703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -36810,7 +36810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -36917,7 +36917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -37024,7 +37024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -37131,7 +37131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -37238,7 +37238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -37345,7 +37345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -37452,7 +37452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -37559,7 +37559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -37680,12 +37680,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -37792,7 +37792,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -37899,7 +37899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -38006,7 +38006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -38220,7 +38220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -38327,7 +38327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -38434,7 +38434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -38541,7 +38541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -38648,7 +38648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -38755,7 +38755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -38876,12 +38876,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -38988,7 +38988,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -39095,7 +39095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -39202,7 +39202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -39309,7 +39309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -39416,7 +39416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -39557,7 +39557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -39664,7 +39664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -39771,7 +39771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -39878,7 +39878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -39985,7 +39985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -40106,12 +40106,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -40218,7 +40218,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -40325,7 +40325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -40432,7 +40432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -40539,7 +40539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -40646,7 +40646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -40753,7 +40753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -40894,7 +40894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -41001,7 +41001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -41108,7 +41108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -41215,7 +41215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -41336,12 +41336,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -41448,7 +41448,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -41555,7 +41555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -41662,7 +41662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -41769,7 +41769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -41876,7 +41876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -41983,7 +41983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -42090,7 +42090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -42197,7 +42197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -42304,7 +42304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -42411,7 +42411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -42532,7 +42532,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42547,12 +42547,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -42659,7 +42659,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -42766,7 +42766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -42873,7 +42873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -42980,7 +42980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -43087,7 +43087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -43194,7 +43194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -43301,7 +43301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -43408,7 +43408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -43515,7 +43515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -43622,7 +43622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -43743,12 +43743,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -43855,7 +43855,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -43962,7 +43962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -44069,7 +44069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -44176,7 +44176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -44283,7 +44283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -44390,7 +44390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -44497,7 +44497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -44604,7 +44604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -44711,7 +44711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -44818,7 +44818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -44939,12 +44939,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -45054,7 +45054,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -45164,7 +45164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -45274,7 +45274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -45384,7 +45384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -45494,7 +45494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -45604,7 +45604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -45714,7 +45714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -45824,7 +45824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -45934,7 +45934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -46044,7 +46044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -46168,12 +46168,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -46280,7 +46280,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -46387,7 +46387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -46494,7 +46494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -46601,7 +46601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -46708,7 +46708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -46849,7 +46849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -46956,7 +46956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -47063,7 +47063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -47170,7 +47170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -47277,7 +47277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -47398,12 +47398,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -47510,7 +47510,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -47617,7 +47617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -47724,7 +47724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -47831,7 +47831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -47938,7 +47938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -48045,7 +48045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -48186,7 +48186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -48293,7 +48293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -48400,7 +48400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -48507,7 +48507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -48628,12 +48628,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -48740,7 +48740,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -48847,7 +48847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -48954,7 +48954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -49061,7 +49061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -49168,7 +49168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -49275,7 +49275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -49382,7 +49382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -49489,7 +49489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -49596,7 +49596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -49703,7 +49703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -49824,7 +49824,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -49839,12 +49839,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -49951,7 +49951,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -50058,7 +50058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -50165,7 +50165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -50272,7 +50272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -50379,7 +50379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -50486,7 +50486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -50593,7 +50593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -50700,7 +50700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -50807,7 +50807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -50914,7 +50914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -51035,12 +51035,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -51147,7 +51147,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -51254,7 +51254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -51361,7 +51361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -51468,7 +51468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -51575,7 +51575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -51682,7 +51682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -51789,7 +51789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -51896,7 +51896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -52003,7 +52003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -52110,7 +52110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -52231,12 +52231,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -52343,7 +52343,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -52450,7 +52450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -52557,7 +52557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -52664,7 +52664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -52771,7 +52771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -52912,7 +52912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -53019,7 +53019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -53126,7 +53126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -53233,7 +53233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -53340,7 +53340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -53461,12 +53461,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -53573,7 +53573,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -53680,7 +53680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -53787,7 +53787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -53894,7 +53894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -54001,7 +54001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -54108,7 +54108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -54249,7 +54249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -54356,7 +54356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -54463,7 +54463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -54570,7 +54570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -54691,12 +54691,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -54803,7 +54803,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -54910,7 +54910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -55017,7 +55017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -55124,7 +55124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -55231,7 +55231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -55338,7 +55338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -55445,7 +55445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -55552,7 +55552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -55659,7 +55659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -55766,7 +55766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -55887,7 +55887,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -55904,12 +55904,12 @@
       <selection activeCell="B6" sqref="B6:AJ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -56019,7 +56019,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -56129,7 +56129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -56239,7 +56239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -56349,7 +56349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -56459,7 +56459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -56604,7 +56604,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -56714,7 +56714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -56824,7 +56824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -56934,7 +56934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -57044,7 +57044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -57168,12 +57168,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -57280,7 +57280,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -57387,7 +57387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -57494,7 +57494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -57601,7 +57601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -57708,7 +57708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -57815,7 +57815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -57922,7 +57922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -58029,7 +58029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -58136,7 +58136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -58243,7 +58243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -58364,12 +58364,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -58476,7 +58476,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -58583,7 +58583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -58690,7 +58690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -58797,7 +58797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -58904,7 +58904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -59011,7 +59011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -59118,7 +59118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -59225,7 +59225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -59332,7 +59332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -59439,7 +59439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -59560,12 +59560,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -59672,7 +59672,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -59779,7 +59779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -59886,7 +59886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -59993,7 +59993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -60100,7 +60100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -60241,7 +60241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -60348,7 +60348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -60455,7 +60455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -60562,7 +60562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -60669,7 +60669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -60790,12 +60790,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -60902,7 +60902,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -61009,7 +61009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -61116,7 +61116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -61223,7 +61223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -61330,7 +61330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -61437,7 +61437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -61578,7 +61578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -61685,7 +61685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -61792,7 +61792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -61899,7 +61899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -62020,12 +62020,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -62132,7 +62132,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -62239,7 +62239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -62346,7 +62346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -62453,7 +62453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -62560,7 +62560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -62667,7 +62667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -62774,7 +62774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -62881,7 +62881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -62988,7 +62988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -63095,7 +63095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -63216,7 +63216,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -63231,12 +63231,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -63343,7 +63343,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -63450,7 +63450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -63557,7 +63557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -63664,7 +63664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -63771,7 +63771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -63878,7 +63878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -63985,7 +63985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -64092,7 +64092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -64199,7 +64199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -64306,7 +64306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -64427,12 +64427,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -64539,7 +64539,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -64646,7 +64646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -64753,7 +64753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -64860,7 +64860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -64967,7 +64967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -65074,7 +65074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -65181,7 +65181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -65288,7 +65288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -65395,7 +65395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -65502,7 +65502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -65623,12 +65623,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -65735,7 +65735,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -65842,7 +65842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -65949,7 +65949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -66056,7 +66056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -66163,7 +66163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -66304,7 +66304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -66411,7 +66411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -66518,7 +66518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -66625,7 +66625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -66732,7 +66732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -66851,16 +66851,16 @@
   </sheetPr>
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:AI7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -66967,7 +66967,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -67074,7 +67074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -67181,7 +67181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -67288,7 +67288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -67395,7 +67395,7 @@
         <v>0.42991564609237387</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -67502,7 +67502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -67528,122 +67528,122 @@
       </c>
       <c r="G7">
         <f>'Max Biofuel Blends'!G$17</f>
-        <v>1.7241379310341642E-2</v>
+        <v>3.4482758620683285E-2</v>
       </c>
       <c r="H7">
         <f>'Max Biofuel Blends'!H$17</f>
-        <v>3.448275862069039E-2</v>
+        <v>6.896551724138078E-2</v>
       </c>
       <c r="I7">
         <f>'Max Biofuel Blends'!I$17</f>
-        <v>5.1724137931032033E-2</v>
+        <v>0.10344827586206407</v>
       </c>
       <c r="J7">
         <f>'Max Biofuel Blends'!J$17</f>
-        <v>6.896551724138078E-2</v>
+        <v>0.13793103448276156</v>
       </c>
       <c r="K7">
         <f>'Max Biofuel Blends'!K$17</f>
-        <v>8.6206896551722423E-2</v>
+        <v>0.17241379310344485</v>
       </c>
       <c r="L7">
         <f>'Max Biofuel Blends'!L$17</f>
-        <v>0.10344827586207117</v>
+        <v>0.20689655172414234</v>
       </c>
       <c r="M7">
         <f>'Max Biofuel Blends'!M$17</f>
-        <v>0.12068965517241281</v>
+        <v>0.24137931034482563</v>
       </c>
       <c r="N7">
         <f>'Max Biofuel Blends'!N$17</f>
-        <v>0.13793103448275446</v>
+        <v>0.27586206896550891</v>
       </c>
       <c r="O7">
         <f>'Max Biofuel Blends'!O$17</f>
-        <v>0.1551724137931032</v>
+        <v>0.31034482758620641</v>
       </c>
       <c r="P7">
         <f>'Max Biofuel Blends'!P$17</f>
-        <v>0.17241379310344485</v>
+        <v>0.34482758620688969</v>
       </c>
       <c r="Q7">
         <f>'Max Biofuel Blends'!Q$17</f>
-        <v>0.18965517241379359</v>
+        <v>0.37931034482758719</v>
       </c>
       <c r="R7">
         <f>'Max Biofuel Blends'!R$17</f>
-        <v>0.20689655172413524</v>
+        <v>0.41379310344827047</v>
       </c>
       <c r="S7">
         <f>'Max Biofuel Blends'!S$17</f>
-        <v>0.22413793103448398</v>
+        <v>0.44827586206896797</v>
       </c>
       <c r="T7">
         <f>'Max Biofuel Blends'!T$17</f>
-        <v>0.24137931034482563</v>
+        <v>0.48275862068965125</v>
       </c>
       <c r="U7">
         <f>'Max Biofuel Blends'!U$17</f>
-        <v>0.25862068965517437</v>
+        <v>0.51724137931034875</v>
       </c>
       <c r="V7">
         <f>'Max Biofuel Blends'!V$17</f>
-        <v>0.27586206896551602</v>
+        <v>0.55172413793103203</v>
       </c>
       <c r="W7">
         <f>'Max Biofuel Blends'!W$17</f>
-        <v>0.29310344827586476</v>
+        <v>0.58620689655172953</v>
       </c>
       <c r="X7">
         <f>'Max Biofuel Blends'!X$17</f>
-        <v>0.31034482758620641</v>
+        <v>0.62068965517241281</v>
       </c>
       <c r="Y7">
         <f>'Max Biofuel Blends'!Y$17</f>
-        <v>0.32758620689654805</v>
+        <v>0.6551724137930961</v>
       </c>
       <c r="Z7">
         <f>'Max Biofuel Blends'!Z$17</f>
-        <v>0.3448275862068968</v>
+        <v>0.68965517241379359</v>
       </c>
       <c r="AA7">
         <f>'Max Biofuel Blends'!AA$17</f>
-        <v>0.36206896551723844</v>
+        <v>0.72413793103447688</v>
       </c>
       <c r="AB7">
         <f>'Max Biofuel Blends'!AB$17</f>
-        <v>0.37931034482758719</v>
+        <v>0.75862068965517437</v>
       </c>
       <c r="AC7">
         <f>'Max Biofuel Blends'!AC$17</f>
-        <v>0.39655172413792883</v>
+        <v>0.79310344827585766</v>
       </c>
       <c r="AD7">
         <f>'Max Biofuel Blends'!AD$17</f>
-        <v>0.41379310344827758</v>
+        <v>0.82758620689655515</v>
       </c>
       <c r="AE7">
         <f>'Max Biofuel Blends'!AE$17</f>
-        <v>0.43103448275861922</v>
+        <v>0.86206896551723844</v>
       </c>
       <c r="AF7">
         <f>'Max Biofuel Blends'!AF$17</f>
-        <v>0.44827586206896797</v>
+        <v>0.89655172413793593</v>
       </c>
       <c r="AG7">
         <f>'Max Biofuel Blends'!AG$17</f>
-        <v>0.46551724137930961</v>
+        <v>0.93103448275861922</v>
       </c>
       <c r="AH7">
         <f>'Max Biofuel Blends'!AH$17</f>
-        <v>0.48275862068965125</v>
+        <v>0.9655172413793025</v>
       </c>
       <c r="AI7">
         <f>'Max Biofuel Blends'!AI$17</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -67750,7 +67750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -67857,7 +67857,7 @@
         <v>0.57008435390762602</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -67964,7 +67964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -68087,12 +68087,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -68202,7 +68202,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -68312,7 +68312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -68422,7 +68422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -68532,7 +68532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -68642,7 +68642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -68752,7 +68752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -68862,7 +68862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -68972,7 +68972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -69082,7 +69082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -69192,7 +69192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -69316,12 +69316,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -69428,7 +69428,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -69535,7 +69535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -69642,7 +69642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -69749,7 +69749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -69856,7 +69856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -69963,7 +69963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -70070,7 +70070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -70177,7 +70177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -70284,7 +70284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -70391,7 +70391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -70512,7 +70512,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -70527,12 +70527,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -70642,7 +70642,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -70752,7 +70752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -70862,7 +70862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -70972,7 +70972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -71082,7 +71082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -71192,7 +71192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -71302,7 +71302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -71412,7 +71412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -71522,7 +71522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -71632,7 +71632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -71756,12 +71756,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -71871,7 +71871,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -71981,7 +71981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -72091,7 +72091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -72201,7 +72201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -72311,7 +72311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -72421,7 +72421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -72531,7 +72531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -72641,7 +72641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -72751,7 +72751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -72861,7 +72861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -72987,12 +72987,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -73102,7 +73102,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -73212,7 +73212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -73322,7 +73322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -73432,7 +73432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -73542,7 +73542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -73652,7 +73652,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -73762,7 +73762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -73872,7 +73872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -73982,7 +73982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -74092,7 +74092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -74218,12 +74218,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -74333,7 +74333,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -74443,7 +74443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -74553,7 +74553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -74663,7 +74663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -74773,7 +74773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -74883,7 +74883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -74993,7 +74993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -75103,7 +75103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -75213,7 +75213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -75323,7 +75323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -75449,12 +75449,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -75564,7 +75564,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -75674,7 +75674,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -75784,7 +75784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -75894,7 +75894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -76004,7 +76004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -76114,7 +76114,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -76224,7 +76224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -76334,7 +76334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -76444,7 +76444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -76554,7 +76554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -76678,12 +76678,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -76793,7 +76793,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -76903,7 +76903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -77013,7 +77013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -77123,7 +77123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -77233,7 +77233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -77343,7 +77343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -77453,7 +77453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -77563,7 +77563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -77673,7 +77673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -77783,7 +77783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -77907,12 +77907,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -78022,7 +78022,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -78132,7 +78132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -78242,7 +78242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -78352,7 +78352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -78462,7 +78462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -78572,7 +78572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -78682,7 +78682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -78792,7 +78792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -78902,7 +78902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -79012,7 +79012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -79136,7 +79136,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -79153,12 +79153,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -79268,7 +79268,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -79378,7 +79378,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -79488,7 +79488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -79598,7 +79598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -79708,7 +79708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -79853,7 +79853,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -79963,7 +79963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -80073,7 +80073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -80183,7 +80183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -80293,7 +80293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -80420,12 +80420,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -80535,7 +80535,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -80645,7 +80645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -80755,7 +80755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -80865,7 +80865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -80975,7 +80975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -81085,7 +81085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -81195,7 +81195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -81305,7 +81305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -81415,7 +81415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -81525,7 +81525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -81649,12 +81649,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -81764,7 +81764,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -81874,7 +81874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -81984,7 +81984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -82094,7 +82094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -82204,7 +82204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -82314,7 +82314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -82424,7 +82424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -82534,7 +82534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -82644,7 +82644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -82754,7 +82754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -82880,12 +82880,12 @@
       <selection activeCell="B6" sqref="B6:AJ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -82995,7 +82995,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -83105,7 +83105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -83215,7 +83215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -83325,7 +83325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -83435,7 +83435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -83580,7 +83580,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -83690,7 +83690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -83800,7 +83800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -83910,7 +83910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -84020,7 +84020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -84146,12 +84146,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -84261,7 +84261,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -84371,7 +84371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -84481,7 +84481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -84591,7 +84591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -84701,7 +84701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -84811,7 +84811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -84956,7 +84956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -85066,7 +85066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -85176,7 +85176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -85286,7 +85286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -85412,12 +85412,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -85527,7 +85527,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -85637,7 +85637,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -85747,7 +85747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -85857,7 +85857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -85967,7 +85967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -86112,7 +86112,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -86222,7 +86222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -86332,7 +86332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -86442,7 +86442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -86552,7 +86552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -86676,12 +86676,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -86791,7 +86791,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -86901,7 +86901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -87011,7 +87011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -87121,7 +87121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -87231,7 +87231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -87341,7 +87341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -87451,7 +87451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -87561,7 +87561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -87671,7 +87671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -87781,7 +87781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -87905,12 +87905,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -88020,7 +88020,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -88130,7 +88130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -88240,7 +88240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -88350,7 +88350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -88460,7 +88460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -88570,7 +88570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -88680,7 +88680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -88790,7 +88790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -88900,7 +88900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -89010,7 +89010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -89134,12 +89134,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -89249,7 +89249,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -89359,7 +89359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -89469,7 +89469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -89579,7 +89579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -89689,7 +89689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -89799,7 +89799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -89909,7 +89909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -90019,7 +90019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -90129,7 +90129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -90239,7 +90239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>

--- a/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
+++ b/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\MPoEFUbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\MPoEFUbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AB6F7F-6703-4EC9-9AC9-D95123198F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FBF57E-9E0A-4861-96FF-003F2EEA3BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <definedName name="max_biodsl">'Max Biofuel Blends'!$A$3</definedName>
     <definedName name="max_biogas">'Max Biofuel Blends'!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -828,7 +828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A53" sqref="A53:XFD56"/>
     </sheetView>
   </sheetViews>
@@ -11119,8 +11119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11156,7 +11156,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B6">
         <v>2050</v>
@@ -11177,7 +11177,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B9">
         <v>2050</v>
@@ -11188,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
@@ -11324,115 +11324,115 @@
       </c>
       <c r="G14">
         <f>_xlfn.FORECAST.LINEAR(G13,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>3.4482758620683285E-2</v>
+        <v>6.6666666666677088E-2</v>
       </c>
       <c r="H14">
         <f t="shared" ref="H14:AI14" si="0">_xlfn.FORECAST.LINEAR(H13,$A$7:$B$7,$A$6:$B$6)</f>
-        <v>6.896551724138078E-2</v>
+        <v>0.10000000000000853</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>0.10344827586206407</v>
+        <v>0.13333333333333997</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>0.13793103448276156</v>
+        <v>0.1666666666666714</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>0.17241379310344485</v>
+        <v>0.20000000000000284</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>0.20689655172414234</v>
+        <v>0.23333333333333428</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
-        <v>0.24137931034482563</v>
+        <v>0.26666666666666572</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
-        <v>0.27586206896550891</v>
+        <v>0.29999999999999716</v>
       </c>
       <c r="O14">
         <f t="shared" si="0"/>
-        <v>0.31034482758620641</v>
+        <v>0.33333333333334281</v>
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
-        <v>0.34482758620688969</v>
+        <v>0.36666666666667425</v>
       </c>
       <c r="Q14">
         <f t="shared" si="0"/>
-        <v>0.37931034482758719</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="R14">
         <f t="shared" si="0"/>
-        <v>0.41379310344827047</v>
+        <v>0.43333333333333712</v>
       </c>
       <c r="S14">
         <f t="shared" si="0"/>
-        <v>0.44827586206896797</v>
+        <v>0.46666666666666856</v>
       </c>
       <c r="T14">
         <f t="shared" si="0"/>
-        <v>0.48275862068965125</v>
+        <v>0.5</v>
       </c>
       <c r="U14">
         <f t="shared" si="0"/>
-        <v>0.51724137931034875</v>
+        <v>0.53333333333333144</v>
       </c>
       <c r="V14">
         <f t="shared" si="0"/>
-        <v>0.55172413793103203</v>
+        <v>0.56666666666667709</v>
       </c>
       <c r="W14">
         <f t="shared" si="0"/>
-        <v>0.58620689655172953</v>
+        <v>0.60000000000000853</v>
       </c>
       <c r="X14">
         <f t="shared" si="0"/>
-        <v>0.62068965517241281</v>
+        <v>0.63333333333333997</v>
       </c>
       <c r="Y14">
         <f t="shared" si="0"/>
-        <v>0.6551724137930961</v>
+        <v>0.6666666666666714</v>
       </c>
       <c r="Z14">
         <f t="shared" si="0"/>
-        <v>0.68965517241379359</v>
+        <v>0.70000000000000284</v>
       </c>
       <c r="AA14">
         <f t="shared" si="0"/>
-        <v>0.72413793103447688</v>
+        <v>0.73333333333333428</v>
       </c>
       <c r="AB14">
         <f t="shared" si="0"/>
-        <v>0.75862068965517437</v>
+        <v>0.76666666666666572</v>
       </c>
       <c r="AC14">
         <f t="shared" si="0"/>
-        <v>0.79310344827585766</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="AD14">
         <f t="shared" si="0"/>
-        <v>0.82758620689655515</v>
+        <v>0.83333333333334281</v>
       </c>
       <c r="AE14">
         <f t="shared" si="0"/>
-        <v>0.86206896551723844</v>
+        <v>0.86666666666667425</v>
       </c>
       <c r="AF14">
         <f t="shared" si="0"/>
-        <v>0.89655172413793593</v>
+        <v>0.90000000000000568</v>
       </c>
       <c r="AG14">
         <f t="shared" si="0"/>
-        <v>0.93103448275861922</v>
+        <v>0.93333333333333712</v>
       </c>
       <c r="AH14">
         <f t="shared" si="0"/>
-        <v>0.9655172413793025</v>
+        <v>0.96666666666666856</v>
       </c>
       <c r="AI14">
         <f t="shared" si="0"/>
@@ -11571,119 +11571,119 @@
       </c>
       <c r="G17" cm="1">
         <f t="array" ref="G17">TREND($A$10:$B$10,$A$9:$B$9,G16)</f>
-        <v>1.7241379310341642E-2</v>
+        <v>3.9999999999992042E-2</v>
       </c>
       <c r="H17" cm="1">
         <f t="array" ref="H17">TREND($A$10:$B$10,$A$9:$B$9,H16)</f>
-        <v>3.448275862069039E-2</v>
+        <v>5.9999999999995168E-2</v>
       </c>
       <c r="I17" cm="1">
         <f t="array" ref="I17">TREND($A$10:$B$10,$A$9:$B$9,I16)</f>
-        <v>5.1724137931032033E-2</v>
+        <v>7.9999999999998295E-2</v>
       </c>
       <c r="J17" cm="1">
         <f t="array" ref="J17">TREND($A$10:$B$10,$A$9:$B$9,J16)</f>
-        <v>6.896551724138078E-2</v>
+        <v>9.9999999999994316E-2</v>
       </c>
       <c r="K17" cm="1">
         <f t="array" ref="K17">TREND($A$10:$B$10,$A$9:$B$9,K16)</f>
-        <v>8.6206896551722423E-2</v>
+        <v>0.11999999999999744</v>
       </c>
       <c r="L17" cm="1">
         <f t="array" ref="L17">TREND($A$10:$B$10,$A$9:$B$9,L16)</f>
-        <v>0.10344827586207117</v>
+        <v>0.13999999999999346</v>
       </c>
       <c r="M17" cm="1">
         <f t="array" ref="M17">TREND($A$10:$B$10,$A$9:$B$9,M16)</f>
-        <v>0.12068965517241281</v>
+        <v>0.15999999999999659</v>
       </c>
       <c r="N17" cm="1">
         <f t="array" ref="N17">TREND($A$10:$B$10,$A$9:$B$9,N16)</f>
-        <v>0.13793103448275446</v>
+        <v>0.17999999999999261</v>
       </c>
       <c r="O17" cm="1">
         <f t="array" ref="O17">TREND($A$10:$B$10,$A$9:$B$9,O16)</f>
-        <v>0.1551724137931032</v>
+        <v>0.19999999999999574</v>
       </c>
       <c r="P17" cm="1">
         <f t="array" ref="P17">TREND($A$10:$B$10,$A$9:$B$9,P16)</f>
-        <v>0.17241379310344485</v>
+        <v>0.21999999999999176</v>
       </c>
       <c r="Q17" cm="1">
         <f t="array" ref="Q17">TREND($A$10:$B$10,$A$9:$B$9,Q16)</f>
-        <v>0.18965517241379359</v>
+        <v>0.23999999999999488</v>
       </c>
       <c r="R17" cm="1">
         <f t="array" ref="R17">TREND($A$10:$B$10,$A$9:$B$9,R16)</f>
-        <v>0.20689655172413524</v>
+        <v>0.25999999999999801</v>
       </c>
       <c r="S17" cm="1">
         <f t="array" ref="S17">TREND($A$10:$B$10,$A$9:$B$9,S16)</f>
-        <v>0.22413793103448398</v>
+        <v>0.27999999999999403</v>
       </c>
       <c r="T17" cm="1">
         <f t="array" ref="T17">TREND($A$10:$B$10,$A$9:$B$9,T16)</f>
-        <v>0.24137931034482563</v>
+        <v>0.29999999999999716</v>
       </c>
       <c r="U17" cm="1">
         <f t="array" ref="U17">TREND($A$10:$B$10,$A$9:$B$9,U16)</f>
-        <v>0.25862068965517437</v>
+        <v>0.31999999999999318</v>
       </c>
       <c r="V17" cm="1">
         <f t="array" ref="V17">TREND($A$10:$B$10,$A$9:$B$9,V16)</f>
-        <v>0.27586206896551602</v>
+        <v>0.33999999999999631</v>
       </c>
       <c r="W17" cm="1">
         <f t="array" ref="W17">TREND($A$10:$B$10,$A$9:$B$9,W16)</f>
-        <v>0.29310344827586476</v>
+        <v>0.35999999999999233</v>
       </c>
       <c r="X17" cm="1">
         <f t="array" ref="X17">TREND($A$10:$B$10,$A$9:$B$9,X16)</f>
-        <v>0.31034482758620641</v>
+        <v>0.37999999999999545</v>
       </c>
       <c r="Y17" cm="1">
         <f t="array" ref="Y17">TREND($A$10:$B$10,$A$9:$B$9,Y16)</f>
-        <v>0.32758620689654805</v>
+        <v>0.39999999999999858</v>
       </c>
       <c r="Z17" cm="1">
         <f t="array" ref="Z17">TREND($A$10:$B$10,$A$9:$B$9,Z16)</f>
-        <v>0.3448275862068968</v>
+        <v>0.4199999999999946</v>
       </c>
       <c r="AA17" cm="1">
         <f t="array" ref="AA17">TREND($A$10:$B$10,$A$9:$B$9,AA16)</f>
-        <v>0.36206896551723844</v>
+        <v>0.43999999999999773</v>
       </c>
       <c r="AB17" cm="1">
         <f t="array" ref="AB17">TREND($A$10:$B$10,$A$9:$B$9,AB16)</f>
-        <v>0.37931034482758719</v>
+        <v>0.45999999999999375</v>
       </c>
       <c r="AC17" cm="1">
         <f t="array" ref="AC17">TREND($A$10:$B$10,$A$9:$B$9,AC16)</f>
-        <v>0.39655172413792883</v>
+        <v>0.47999999999999687</v>
       </c>
       <c r="AD17" cm="1">
         <f t="array" ref="AD17">TREND($A$10:$B$10,$A$9:$B$9,AD16)</f>
-        <v>0.41379310344827758</v>
+        <v>0.49999999999999289</v>
       </c>
       <c r="AE17" cm="1">
         <f t="array" ref="AE17">TREND($A$10:$B$10,$A$9:$B$9,AE16)</f>
-        <v>0.43103448275861922</v>
+        <v>0.51999999999999602</v>
       </c>
       <c r="AF17" cm="1">
         <f t="array" ref="AF17">TREND($A$10:$B$10,$A$9:$B$9,AF16)</f>
-        <v>0.44827586206896797</v>
+        <v>0.53999999999999204</v>
       </c>
       <c r="AG17" cm="1">
         <f t="array" ref="AG17">TREND($A$10:$B$10,$A$9:$B$9,AG16)</f>
-        <v>0.46551724137930961</v>
+        <v>0.55999999999999517</v>
       </c>
       <c r="AH17" cm="1">
         <f t="array" ref="AH17">TREND($A$10:$B$10,$A$9:$B$9,AH16)</f>
-        <v>0.48275862068965125</v>
+        <v>0.57999999999999829</v>
       </c>
       <c r="AI17" cm="1">
         <f t="array" ref="AI17">TREND($A$10:$B$10,$A$9:$B$9,AI16)</f>
-        <v>0.5</v>
+        <v>0.59999999999999432</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
@@ -32148,115 +32148,115 @@
       </c>
       <c r="G6">
         <f>'Max Biofuel Blends'!G$14</f>
-        <v>3.4482758620683285E-2</v>
+        <v>6.6666666666677088E-2</v>
       </c>
       <c r="H6">
         <f>'Max Biofuel Blends'!H$14</f>
-        <v>6.896551724138078E-2</v>
+        <v>0.10000000000000853</v>
       </c>
       <c r="I6">
         <f>'Max Biofuel Blends'!I$14</f>
-        <v>0.10344827586206407</v>
+        <v>0.13333333333333997</v>
       </c>
       <c r="J6">
         <f>'Max Biofuel Blends'!J$14</f>
-        <v>0.13793103448276156</v>
+        <v>0.1666666666666714</v>
       </c>
       <c r="K6">
         <f>'Max Biofuel Blends'!K$14</f>
-        <v>0.17241379310344485</v>
+        <v>0.20000000000000284</v>
       </c>
       <c r="L6">
         <f>'Max Biofuel Blends'!L$14</f>
-        <v>0.20689655172414234</v>
+        <v>0.23333333333333428</v>
       </c>
       <c r="M6">
         <f>'Max Biofuel Blends'!M$14</f>
-        <v>0.24137931034482563</v>
+        <v>0.26666666666666572</v>
       </c>
       <c r="N6">
         <f>'Max Biofuel Blends'!N$14</f>
-        <v>0.27586206896550891</v>
+        <v>0.29999999999999716</v>
       </c>
       <c r="O6">
         <f>'Max Biofuel Blends'!O$14</f>
-        <v>0.31034482758620641</v>
+        <v>0.33333333333334281</v>
       </c>
       <c r="P6">
         <f>'Max Biofuel Blends'!P$14</f>
-        <v>0.34482758620688969</v>
+        <v>0.36666666666667425</v>
       </c>
       <c r="Q6">
         <f>'Max Biofuel Blends'!Q$14</f>
-        <v>0.37931034482758719</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="R6">
         <f>'Max Biofuel Blends'!R$14</f>
-        <v>0.41379310344827047</v>
+        <v>0.43333333333333712</v>
       </c>
       <c r="S6">
         <f>'Max Biofuel Blends'!S$14</f>
-        <v>0.44827586206896797</v>
+        <v>0.46666666666666856</v>
       </c>
       <c r="T6">
         <f>'Max Biofuel Blends'!T$14</f>
-        <v>0.48275862068965125</v>
+        <v>0.5</v>
       </c>
       <c r="U6">
         <f>'Max Biofuel Blends'!U$14</f>
-        <v>0.51724137931034875</v>
+        <v>0.53333333333333144</v>
       </c>
       <c r="V6">
         <f>'Max Biofuel Blends'!V$14</f>
-        <v>0.55172413793103203</v>
+        <v>0.56666666666667709</v>
       </c>
       <c r="W6">
         <f>'Max Biofuel Blends'!W$14</f>
-        <v>0.58620689655172953</v>
+        <v>0.60000000000000853</v>
       </c>
       <c r="X6">
         <f>'Max Biofuel Blends'!X$14</f>
-        <v>0.62068965517241281</v>
+        <v>0.63333333333333997</v>
       </c>
       <c r="Y6">
         <f>'Max Biofuel Blends'!Y$14</f>
-        <v>0.6551724137930961</v>
+        <v>0.6666666666666714</v>
       </c>
       <c r="Z6">
         <f>'Max Biofuel Blends'!Z$14</f>
-        <v>0.68965517241379359</v>
+        <v>0.70000000000000284</v>
       </c>
       <c r="AA6">
         <f>'Max Biofuel Blends'!AA$14</f>
-        <v>0.72413793103447688</v>
+        <v>0.73333333333333428</v>
       </c>
       <c r="AB6">
         <f>'Max Biofuel Blends'!AB$14</f>
-        <v>0.75862068965517437</v>
+        <v>0.76666666666666572</v>
       </c>
       <c r="AC6">
         <f>'Max Biofuel Blends'!AC$14</f>
-        <v>0.79310344827585766</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="AD6">
         <f>'Max Biofuel Blends'!AD$14</f>
-        <v>0.82758620689655515</v>
+        <v>0.83333333333334281</v>
       </c>
       <c r="AE6">
         <f>'Max Biofuel Blends'!AE$14</f>
-        <v>0.86206896551723844</v>
+        <v>0.86666666666667425</v>
       </c>
       <c r="AF6">
         <f>'Max Biofuel Blends'!AF$14</f>
-        <v>0.89655172413793593</v>
+        <v>0.90000000000000568</v>
       </c>
       <c r="AG6">
         <f>'Max Biofuel Blends'!AG$14</f>
-        <v>0.93103448275861922</v>
+        <v>0.93333333333333712</v>
       </c>
       <c r="AH6">
         <f>'Max Biofuel Blends'!AH$14</f>
-        <v>0.9655172413793025</v>
+        <v>0.96666666666666856</v>
       </c>
       <c r="AI6">
         <f>'Max Biofuel Blends'!AI$14</f>
@@ -33487,115 +33487,115 @@
       </c>
       <c r="G7">
         <f>'Max Biofuel Blends'!G$14</f>
-        <v>3.4482758620683285E-2</v>
+        <v>6.6666666666677088E-2</v>
       </c>
       <c r="H7">
         <f>'Max Biofuel Blends'!H$14</f>
-        <v>6.896551724138078E-2</v>
+        <v>0.10000000000000853</v>
       </c>
       <c r="I7">
         <f>'Max Biofuel Blends'!I$14</f>
-        <v>0.10344827586206407</v>
+        <v>0.13333333333333997</v>
       </c>
       <c r="J7">
         <f>'Max Biofuel Blends'!J$14</f>
-        <v>0.13793103448276156</v>
+        <v>0.1666666666666714</v>
       </c>
       <c r="K7">
         <f>'Max Biofuel Blends'!K$14</f>
-        <v>0.17241379310344485</v>
+        <v>0.20000000000000284</v>
       </c>
       <c r="L7">
         <f>'Max Biofuel Blends'!L$14</f>
-        <v>0.20689655172414234</v>
+        <v>0.23333333333333428</v>
       </c>
       <c r="M7">
         <f>'Max Biofuel Blends'!M$14</f>
-        <v>0.24137931034482563</v>
+        <v>0.26666666666666572</v>
       </c>
       <c r="N7">
         <f>'Max Biofuel Blends'!N$14</f>
-        <v>0.27586206896550891</v>
+        <v>0.29999999999999716</v>
       </c>
       <c r="O7">
         <f>'Max Biofuel Blends'!O$14</f>
-        <v>0.31034482758620641</v>
+        <v>0.33333333333334281</v>
       </c>
       <c r="P7">
         <f>'Max Biofuel Blends'!P$14</f>
-        <v>0.34482758620688969</v>
+        <v>0.36666666666667425</v>
       </c>
       <c r="Q7">
         <f>'Max Biofuel Blends'!Q$14</f>
-        <v>0.37931034482758719</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="R7">
         <f>'Max Biofuel Blends'!R$14</f>
-        <v>0.41379310344827047</v>
+        <v>0.43333333333333712</v>
       </c>
       <c r="S7">
         <f>'Max Biofuel Blends'!S$14</f>
-        <v>0.44827586206896797</v>
+        <v>0.46666666666666856</v>
       </c>
       <c r="T7">
         <f>'Max Biofuel Blends'!T$14</f>
-        <v>0.48275862068965125</v>
+        <v>0.5</v>
       </c>
       <c r="U7">
         <f>'Max Biofuel Blends'!U$14</f>
-        <v>0.51724137931034875</v>
+        <v>0.53333333333333144</v>
       </c>
       <c r="V7">
         <f>'Max Biofuel Blends'!V$14</f>
-        <v>0.55172413793103203</v>
+        <v>0.56666666666667709</v>
       </c>
       <c r="W7">
         <f>'Max Biofuel Blends'!W$14</f>
-        <v>0.58620689655172953</v>
+        <v>0.60000000000000853</v>
       </c>
       <c r="X7">
         <f>'Max Biofuel Blends'!X$14</f>
-        <v>0.62068965517241281</v>
+        <v>0.63333333333333997</v>
       </c>
       <c r="Y7">
         <f>'Max Biofuel Blends'!Y$14</f>
-        <v>0.6551724137930961</v>
+        <v>0.6666666666666714</v>
       </c>
       <c r="Z7">
         <f>'Max Biofuel Blends'!Z$14</f>
-        <v>0.68965517241379359</v>
+        <v>0.70000000000000284</v>
       </c>
       <c r="AA7">
         <f>'Max Biofuel Blends'!AA$14</f>
-        <v>0.72413793103447688</v>
+        <v>0.73333333333333428</v>
       </c>
       <c r="AB7">
         <f>'Max Biofuel Blends'!AB$14</f>
-        <v>0.75862068965517437</v>
+        <v>0.76666666666666572</v>
       </c>
       <c r="AC7">
         <f>'Max Biofuel Blends'!AC$14</f>
-        <v>0.79310344827585766</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="AD7">
         <f>'Max Biofuel Blends'!AD$14</f>
-        <v>0.82758620689655515</v>
+        <v>0.83333333333334281</v>
       </c>
       <c r="AE7">
         <f>'Max Biofuel Blends'!AE$14</f>
-        <v>0.86206896551723844</v>
+        <v>0.86666666666667425</v>
       </c>
       <c r="AF7">
         <f>'Max Biofuel Blends'!AF$14</f>
-        <v>0.89655172413793593</v>
+        <v>0.90000000000000568</v>
       </c>
       <c r="AG7">
         <f>'Max Biofuel Blends'!AG$14</f>
-        <v>0.93103448275861922</v>
+        <v>0.93333333333333712</v>
       </c>
       <c r="AH7">
         <f>'Max Biofuel Blends'!AH$14</f>
-        <v>0.9655172413793025</v>
+        <v>0.96666666666666856</v>
       </c>
       <c r="AI7">
         <f>'Max Biofuel Blends'!AI$14</f>
@@ -39442,115 +39442,115 @@
       </c>
       <c r="G6">
         <f>'Max Biofuel Blends'!G$14</f>
-        <v>3.4482758620683285E-2</v>
+        <v>6.6666666666677088E-2</v>
       </c>
       <c r="H6">
         <f>'Max Biofuel Blends'!H$14</f>
-        <v>6.896551724138078E-2</v>
+        <v>0.10000000000000853</v>
       </c>
       <c r="I6">
         <f>'Max Biofuel Blends'!I$14</f>
-        <v>0.10344827586206407</v>
+        <v>0.13333333333333997</v>
       </c>
       <c r="J6">
         <f>'Max Biofuel Blends'!J$14</f>
-        <v>0.13793103448276156</v>
+        <v>0.1666666666666714</v>
       </c>
       <c r="K6">
         <f>'Max Biofuel Blends'!K$14</f>
-        <v>0.17241379310344485</v>
+        <v>0.20000000000000284</v>
       </c>
       <c r="L6">
         <f>'Max Biofuel Blends'!L$14</f>
-        <v>0.20689655172414234</v>
+        <v>0.23333333333333428</v>
       </c>
       <c r="M6">
         <f>'Max Biofuel Blends'!M$14</f>
-        <v>0.24137931034482563</v>
+        <v>0.26666666666666572</v>
       </c>
       <c r="N6">
         <f>'Max Biofuel Blends'!N$14</f>
-        <v>0.27586206896550891</v>
+        <v>0.29999999999999716</v>
       </c>
       <c r="O6">
         <f>'Max Biofuel Blends'!O$14</f>
-        <v>0.31034482758620641</v>
+        <v>0.33333333333334281</v>
       </c>
       <c r="P6">
         <f>'Max Biofuel Blends'!P$14</f>
-        <v>0.34482758620688969</v>
+        <v>0.36666666666667425</v>
       </c>
       <c r="Q6">
         <f>'Max Biofuel Blends'!Q$14</f>
-        <v>0.37931034482758719</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="R6">
         <f>'Max Biofuel Blends'!R$14</f>
-        <v>0.41379310344827047</v>
+        <v>0.43333333333333712</v>
       </c>
       <c r="S6">
         <f>'Max Biofuel Blends'!S$14</f>
-        <v>0.44827586206896797</v>
+        <v>0.46666666666666856</v>
       </c>
       <c r="T6">
         <f>'Max Biofuel Blends'!T$14</f>
-        <v>0.48275862068965125</v>
+        <v>0.5</v>
       </c>
       <c r="U6">
         <f>'Max Biofuel Blends'!U$14</f>
-        <v>0.51724137931034875</v>
+        <v>0.53333333333333144</v>
       </c>
       <c r="V6">
         <f>'Max Biofuel Blends'!V$14</f>
-        <v>0.55172413793103203</v>
+        <v>0.56666666666667709</v>
       </c>
       <c r="W6">
         <f>'Max Biofuel Blends'!W$14</f>
-        <v>0.58620689655172953</v>
+        <v>0.60000000000000853</v>
       </c>
       <c r="X6">
         <f>'Max Biofuel Blends'!X$14</f>
-        <v>0.62068965517241281</v>
+        <v>0.63333333333333997</v>
       </c>
       <c r="Y6">
         <f>'Max Biofuel Blends'!Y$14</f>
-        <v>0.6551724137930961</v>
+        <v>0.6666666666666714</v>
       </c>
       <c r="Z6">
         <f>'Max Biofuel Blends'!Z$14</f>
-        <v>0.68965517241379359</v>
+        <v>0.70000000000000284</v>
       </c>
       <c r="AA6">
         <f>'Max Biofuel Blends'!AA$14</f>
-        <v>0.72413793103447688</v>
+        <v>0.73333333333333428</v>
       </c>
       <c r="AB6">
         <f>'Max Biofuel Blends'!AB$14</f>
-        <v>0.75862068965517437</v>
+        <v>0.76666666666666572</v>
       </c>
       <c r="AC6">
         <f>'Max Biofuel Blends'!AC$14</f>
-        <v>0.79310344827585766</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="AD6">
         <f>'Max Biofuel Blends'!AD$14</f>
-        <v>0.82758620689655515</v>
+        <v>0.83333333333334281</v>
       </c>
       <c r="AE6">
         <f>'Max Biofuel Blends'!AE$14</f>
-        <v>0.86206896551723844</v>
+        <v>0.86666666666667425</v>
       </c>
       <c r="AF6">
         <f>'Max Biofuel Blends'!AF$14</f>
-        <v>0.89655172413793593</v>
+        <v>0.90000000000000568</v>
       </c>
       <c r="AG6">
         <f>'Max Biofuel Blends'!AG$14</f>
-        <v>0.93103448275861922</v>
+        <v>0.93333333333333712</v>
       </c>
       <c r="AH6">
         <f>'Max Biofuel Blends'!AH$14</f>
-        <v>0.9655172413793025</v>
+        <v>0.96666666666666856</v>
       </c>
       <c r="AI6">
         <f>'Max Biofuel Blends'!AI$14</f>
@@ -40779,115 +40779,115 @@
       </c>
       <c r="G7">
         <f>'Max Biofuel Blends'!G$14</f>
-        <v>3.4482758620683285E-2</v>
+        <v>6.6666666666677088E-2</v>
       </c>
       <c r="H7">
         <f>'Max Biofuel Blends'!H$14</f>
-        <v>6.896551724138078E-2</v>
+        <v>0.10000000000000853</v>
       </c>
       <c r="I7">
         <f>'Max Biofuel Blends'!I$14</f>
-        <v>0.10344827586206407</v>
+        <v>0.13333333333333997</v>
       </c>
       <c r="J7">
         <f>'Max Biofuel Blends'!J$14</f>
-        <v>0.13793103448276156</v>
+        <v>0.1666666666666714</v>
       </c>
       <c r="K7">
         <f>'Max Biofuel Blends'!K$14</f>
-        <v>0.17241379310344485</v>
+        <v>0.20000000000000284</v>
       </c>
       <c r="L7">
         <f>'Max Biofuel Blends'!L$14</f>
-        <v>0.20689655172414234</v>
+        <v>0.23333333333333428</v>
       </c>
       <c r="M7">
         <f>'Max Biofuel Blends'!M$14</f>
-        <v>0.24137931034482563</v>
+        <v>0.26666666666666572</v>
       </c>
       <c r="N7">
         <f>'Max Biofuel Blends'!N$14</f>
-        <v>0.27586206896550891</v>
+        <v>0.29999999999999716</v>
       </c>
       <c r="O7">
         <f>'Max Biofuel Blends'!O$14</f>
-        <v>0.31034482758620641</v>
+        <v>0.33333333333334281</v>
       </c>
       <c r="P7">
         <f>'Max Biofuel Blends'!P$14</f>
-        <v>0.34482758620688969</v>
+        <v>0.36666666666667425</v>
       </c>
       <c r="Q7">
         <f>'Max Biofuel Blends'!Q$14</f>
-        <v>0.37931034482758719</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="R7">
         <f>'Max Biofuel Blends'!R$14</f>
-        <v>0.41379310344827047</v>
+        <v>0.43333333333333712</v>
       </c>
       <c r="S7">
         <f>'Max Biofuel Blends'!S$14</f>
-        <v>0.44827586206896797</v>
+        <v>0.46666666666666856</v>
       </c>
       <c r="T7">
         <f>'Max Biofuel Blends'!T$14</f>
-        <v>0.48275862068965125</v>
+        <v>0.5</v>
       </c>
       <c r="U7">
         <f>'Max Biofuel Blends'!U$14</f>
-        <v>0.51724137931034875</v>
+        <v>0.53333333333333144</v>
       </c>
       <c r="V7">
         <f>'Max Biofuel Blends'!V$14</f>
-        <v>0.55172413793103203</v>
+        <v>0.56666666666667709</v>
       </c>
       <c r="W7">
         <f>'Max Biofuel Blends'!W$14</f>
-        <v>0.58620689655172953</v>
+        <v>0.60000000000000853</v>
       </c>
       <c r="X7">
         <f>'Max Biofuel Blends'!X$14</f>
-        <v>0.62068965517241281</v>
+        <v>0.63333333333333997</v>
       </c>
       <c r="Y7">
         <f>'Max Biofuel Blends'!Y$14</f>
-        <v>0.6551724137930961</v>
+        <v>0.6666666666666714</v>
       </c>
       <c r="Z7">
         <f>'Max Biofuel Blends'!Z$14</f>
-        <v>0.68965517241379359</v>
+        <v>0.70000000000000284</v>
       </c>
       <c r="AA7">
         <f>'Max Biofuel Blends'!AA$14</f>
-        <v>0.72413793103447688</v>
+        <v>0.73333333333333428</v>
       </c>
       <c r="AB7">
         <f>'Max Biofuel Blends'!AB$14</f>
-        <v>0.75862068965517437</v>
+        <v>0.76666666666666572</v>
       </c>
       <c r="AC7">
         <f>'Max Biofuel Blends'!AC$14</f>
-        <v>0.79310344827585766</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="AD7">
         <f>'Max Biofuel Blends'!AD$14</f>
-        <v>0.82758620689655515</v>
+        <v>0.83333333333334281</v>
       </c>
       <c r="AE7">
         <f>'Max Biofuel Blends'!AE$14</f>
-        <v>0.86206896551723844</v>
+        <v>0.86666666666667425</v>
       </c>
       <c r="AF7">
         <f>'Max Biofuel Blends'!AF$14</f>
-        <v>0.89655172413793593</v>
+        <v>0.90000000000000568</v>
       </c>
       <c r="AG7">
         <f>'Max Biofuel Blends'!AG$14</f>
-        <v>0.93103448275861922</v>
+        <v>0.93333333333333712</v>
       </c>
       <c r="AH7">
         <f>'Max Biofuel Blends'!AH$14</f>
-        <v>0.9655172413793025</v>
+        <v>0.96666666666666856</v>
       </c>
       <c r="AI7">
         <f>'Max Biofuel Blends'!AI$14</f>
@@ -46734,115 +46734,115 @@
       </c>
       <c r="G6">
         <f>'Max Biofuel Blends'!G$14</f>
-        <v>3.4482758620683285E-2</v>
+        <v>6.6666666666677088E-2</v>
       </c>
       <c r="H6">
         <f>'Max Biofuel Blends'!H$14</f>
-        <v>6.896551724138078E-2</v>
+        <v>0.10000000000000853</v>
       </c>
       <c r="I6">
         <f>'Max Biofuel Blends'!I$14</f>
-        <v>0.10344827586206407</v>
+        <v>0.13333333333333997</v>
       </c>
       <c r="J6">
         <f>'Max Biofuel Blends'!J$14</f>
-        <v>0.13793103448276156</v>
+        <v>0.1666666666666714</v>
       </c>
       <c r="K6">
         <f>'Max Biofuel Blends'!K$14</f>
-        <v>0.17241379310344485</v>
+        <v>0.20000000000000284</v>
       </c>
       <c r="L6">
         <f>'Max Biofuel Blends'!L$14</f>
-        <v>0.20689655172414234</v>
+        <v>0.23333333333333428</v>
       </c>
       <c r="M6">
         <f>'Max Biofuel Blends'!M$14</f>
-        <v>0.24137931034482563</v>
+        <v>0.26666666666666572</v>
       </c>
       <c r="N6">
         <f>'Max Biofuel Blends'!N$14</f>
-        <v>0.27586206896550891</v>
+        <v>0.29999999999999716</v>
       </c>
       <c r="O6">
         <f>'Max Biofuel Blends'!O$14</f>
-        <v>0.31034482758620641</v>
+        <v>0.33333333333334281</v>
       </c>
       <c r="P6">
         <f>'Max Biofuel Blends'!P$14</f>
-        <v>0.34482758620688969</v>
+        <v>0.36666666666667425</v>
       </c>
       <c r="Q6">
         <f>'Max Biofuel Blends'!Q$14</f>
-        <v>0.37931034482758719</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="R6">
         <f>'Max Biofuel Blends'!R$14</f>
-        <v>0.41379310344827047</v>
+        <v>0.43333333333333712</v>
       </c>
       <c r="S6">
         <f>'Max Biofuel Blends'!S$14</f>
-        <v>0.44827586206896797</v>
+        <v>0.46666666666666856</v>
       </c>
       <c r="T6">
         <f>'Max Biofuel Blends'!T$14</f>
-        <v>0.48275862068965125</v>
+        <v>0.5</v>
       </c>
       <c r="U6">
         <f>'Max Biofuel Blends'!U$14</f>
-        <v>0.51724137931034875</v>
+        <v>0.53333333333333144</v>
       </c>
       <c r="V6">
         <f>'Max Biofuel Blends'!V$14</f>
-        <v>0.55172413793103203</v>
+        <v>0.56666666666667709</v>
       </c>
       <c r="W6">
         <f>'Max Biofuel Blends'!W$14</f>
-        <v>0.58620689655172953</v>
+        <v>0.60000000000000853</v>
       </c>
       <c r="X6">
         <f>'Max Biofuel Blends'!X$14</f>
-        <v>0.62068965517241281</v>
+        <v>0.63333333333333997</v>
       </c>
       <c r="Y6">
         <f>'Max Biofuel Blends'!Y$14</f>
-        <v>0.6551724137930961</v>
+        <v>0.6666666666666714</v>
       </c>
       <c r="Z6">
         <f>'Max Biofuel Blends'!Z$14</f>
-        <v>0.68965517241379359</v>
+        <v>0.70000000000000284</v>
       </c>
       <c r="AA6">
         <f>'Max Biofuel Blends'!AA$14</f>
-        <v>0.72413793103447688</v>
+        <v>0.73333333333333428</v>
       </c>
       <c r="AB6">
         <f>'Max Biofuel Blends'!AB$14</f>
-        <v>0.75862068965517437</v>
+        <v>0.76666666666666572</v>
       </c>
       <c r="AC6">
         <f>'Max Biofuel Blends'!AC$14</f>
-        <v>0.79310344827585766</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="AD6">
         <f>'Max Biofuel Blends'!AD$14</f>
-        <v>0.82758620689655515</v>
+        <v>0.83333333333334281</v>
       </c>
       <c r="AE6">
         <f>'Max Biofuel Blends'!AE$14</f>
-        <v>0.86206896551723844</v>
+        <v>0.86666666666667425</v>
       </c>
       <c r="AF6">
         <f>'Max Biofuel Blends'!AF$14</f>
-        <v>0.89655172413793593</v>
+        <v>0.90000000000000568</v>
       </c>
       <c r="AG6">
         <f>'Max Biofuel Blends'!AG$14</f>
-        <v>0.93103448275861922</v>
+        <v>0.93333333333333712</v>
       </c>
       <c r="AH6">
         <f>'Max Biofuel Blends'!AH$14</f>
-        <v>0.9655172413793025</v>
+        <v>0.96666666666666856</v>
       </c>
       <c r="AI6">
         <f>'Max Biofuel Blends'!AI$14</f>
@@ -48071,115 +48071,115 @@
       </c>
       <c r="G7">
         <f>'Max Biofuel Blends'!G$14</f>
-        <v>3.4482758620683285E-2</v>
+        <v>6.6666666666677088E-2</v>
       </c>
       <c r="H7">
         <f>'Max Biofuel Blends'!H$14</f>
-        <v>6.896551724138078E-2</v>
+        <v>0.10000000000000853</v>
       </c>
       <c r="I7">
         <f>'Max Biofuel Blends'!I$14</f>
-        <v>0.10344827586206407</v>
+        <v>0.13333333333333997</v>
       </c>
       <c r="J7">
         <f>'Max Biofuel Blends'!J$14</f>
-        <v>0.13793103448276156</v>
+        <v>0.1666666666666714</v>
       </c>
       <c r="K7">
         <f>'Max Biofuel Blends'!K$14</f>
-        <v>0.17241379310344485</v>
+        <v>0.20000000000000284</v>
       </c>
       <c r="L7">
         <f>'Max Biofuel Blends'!L$14</f>
-        <v>0.20689655172414234</v>
+        <v>0.23333333333333428</v>
       </c>
       <c r="M7">
         <f>'Max Biofuel Blends'!M$14</f>
-        <v>0.24137931034482563</v>
+        <v>0.26666666666666572</v>
       </c>
       <c r="N7">
         <f>'Max Biofuel Blends'!N$14</f>
-        <v>0.27586206896550891</v>
+        <v>0.29999999999999716</v>
       </c>
       <c r="O7">
         <f>'Max Biofuel Blends'!O$14</f>
-        <v>0.31034482758620641</v>
+        <v>0.33333333333334281</v>
       </c>
       <c r="P7">
         <f>'Max Biofuel Blends'!P$14</f>
-        <v>0.34482758620688969</v>
+        <v>0.36666666666667425</v>
       </c>
       <c r="Q7">
         <f>'Max Biofuel Blends'!Q$14</f>
-        <v>0.37931034482758719</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="R7">
         <f>'Max Biofuel Blends'!R$14</f>
-        <v>0.41379310344827047</v>
+        <v>0.43333333333333712</v>
       </c>
       <c r="S7">
         <f>'Max Biofuel Blends'!S$14</f>
-        <v>0.44827586206896797</v>
+        <v>0.46666666666666856</v>
       </c>
       <c r="T7">
         <f>'Max Biofuel Blends'!T$14</f>
-        <v>0.48275862068965125</v>
+        <v>0.5</v>
       </c>
       <c r="U7">
         <f>'Max Biofuel Blends'!U$14</f>
-        <v>0.51724137931034875</v>
+        <v>0.53333333333333144</v>
       </c>
       <c r="V7">
         <f>'Max Biofuel Blends'!V$14</f>
-        <v>0.55172413793103203</v>
+        <v>0.56666666666667709</v>
       </c>
       <c r="W7">
         <f>'Max Biofuel Blends'!W$14</f>
-        <v>0.58620689655172953</v>
+        <v>0.60000000000000853</v>
       </c>
       <c r="X7">
         <f>'Max Biofuel Blends'!X$14</f>
-        <v>0.62068965517241281</v>
+        <v>0.63333333333333997</v>
       </c>
       <c r="Y7">
         <f>'Max Biofuel Blends'!Y$14</f>
-        <v>0.6551724137930961</v>
+        <v>0.6666666666666714</v>
       </c>
       <c r="Z7">
         <f>'Max Biofuel Blends'!Z$14</f>
-        <v>0.68965517241379359</v>
+        <v>0.70000000000000284</v>
       </c>
       <c r="AA7">
         <f>'Max Biofuel Blends'!AA$14</f>
-        <v>0.72413793103447688</v>
+        <v>0.73333333333333428</v>
       </c>
       <c r="AB7">
         <f>'Max Biofuel Blends'!AB$14</f>
-        <v>0.75862068965517437</v>
+        <v>0.76666666666666572</v>
       </c>
       <c r="AC7">
         <f>'Max Biofuel Blends'!AC$14</f>
-        <v>0.79310344827585766</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="AD7">
         <f>'Max Biofuel Blends'!AD$14</f>
-        <v>0.82758620689655515</v>
+        <v>0.83333333333334281</v>
       </c>
       <c r="AE7">
         <f>'Max Biofuel Blends'!AE$14</f>
-        <v>0.86206896551723844</v>
+        <v>0.86666666666667425</v>
       </c>
       <c r="AF7">
         <f>'Max Biofuel Blends'!AF$14</f>
-        <v>0.89655172413793593</v>
+        <v>0.90000000000000568</v>
       </c>
       <c r="AG7">
         <f>'Max Biofuel Blends'!AG$14</f>
-        <v>0.93103448275861922</v>
+        <v>0.93333333333333712</v>
       </c>
       <c r="AH7">
         <f>'Max Biofuel Blends'!AH$14</f>
-        <v>0.9655172413793025</v>
+        <v>0.96666666666666856</v>
       </c>
       <c r="AI7">
         <f>'Max Biofuel Blends'!AI$14</f>
@@ -52797,115 +52797,115 @@
       </c>
       <c r="G6">
         <f>'Max Biofuel Blends'!G$14</f>
-        <v>3.4482758620683285E-2</v>
+        <v>6.6666666666677088E-2</v>
       </c>
       <c r="H6">
         <f>'Max Biofuel Blends'!H$14</f>
-        <v>6.896551724138078E-2</v>
+        <v>0.10000000000000853</v>
       </c>
       <c r="I6">
         <f>'Max Biofuel Blends'!I$14</f>
-        <v>0.10344827586206407</v>
+        <v>0.13333333333333997</v>
       </c>
       <c r="J6">
         <f>'Max Biofuel Blends'!J$14</f>
-        <v>0.13793103448276156</v>
+        <v>0.1666666666666714</v>
       </c>
       <c r="K6">
         <f>'Max Biofuel Blends'!K$14</f>
-        <v>0.17241379310344485</v>
+        <v>0.20000000000000284</v>
       </c>
       <c r="L6">
         <f>'Max Biofuel Blends'!L$14</f>
-        <v>0.20689655172414234</v>
+        <v>0.23333333333333428</v>
       </c>
       <c r="M6">
         <f>'Max Biofuel Blends'!M$14</f>
-        <v>0.24137931034482563</v>
+        <v>0.26666666666666572</v>
       </c>
       <c r="N6">
         <f>'Max Biofuel Blends'!N$14</f>
-        <v>0.27586206896550891</v>
+        <v>0.29999999999999716</v>
       </c>
       <c r="O6">
         <f>'Max Biofuel Blends'!O$14</f>
-        <v>0.31034482758620641</v>
+        <v>0.33333333333334281</v>
       </c>
       <c r="P6">
         <f>'Max Biofuel Blends'!P$14</f>
-        <v>0.34482758620688969</v>
+        <v>0.36666666666667425</v>
       </c>
       <c r="Q6">
         <f>'Max Biofuel Blends'!Q$14</f>
-        <v>0.37931034482758719</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="R6">
         <f>'Max Biofuel Blends'!R$14</f>
-        <v>0.41379310344827047</v>
+        <v>0.43333333333333712</v>
       </c>
       <c r="S6">
         <f>'Max Biofuel Blends'!S$14</f>
-        <v>0.44827586206896797</v>
+        <v>0.46666666666666856</v>
       </c>
       <c r="T6">
         <f>'Max Biofuel Blends'!T$14</f>
-        <v>0.48275862068965125</v>
+        <v>0.5</v>
       </c>
       <c r="U6">
         <f>'Max Biofuel Blends'!U$14</f>
-        <v>0.51724137931034875</v>
+        <v>0.53333333333333144</v>
       </c>
       <c r="V6">
         <f>'Max Biofuel Blends'!V$14</f>
-        <v>0.55172413793103203</v>
+        <v>0.56666666666667709</v>
       </c>
       <c r="W6">
         <f>'Max Biofuel Blends'!W$14</f>
-        <v>0.58620689655172953</v>
+        <v>0.60000000000000853</v>
       </c>
       <c r="X6">
         <f>'Max Biofuel Blends'!X$14</f>
-        <v>0.62068965517241281</v>
+        <v>0.63333333333333997</v>
       </c>
       <c r="Y6">
         <f>'Max Biofuel Blends'!Y$14</f>
-        <v>0.6551724137930961</v>
+        <v>0.6666666666666714</v>
       </c>
       <c r="Z6">
         <f>'Max Biofuel Blends'!Z$14</f>
-        <v>0.68965517241379359</v>
+        <v>0.70000000000000284</v>
       </c>
       <c r="AA6">
         <f>'Max Biofuel Blends'!AA$14</f>
-        <v>0.72413793103447688</v>
+        <v>0.73333333333333428</v>
       </c>
       <c r="AB6">
         <f>'Max Biofuel Blends'!AB$14</f>
-        <v>0.75862068965517437</v>
+        <v>0.76666666666666572</v>
       </c>
       <c r="AC6">
         <f>'Max Biofuel Blends'!AC$14</f>
-        <v>0.79310344827585766</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="AD6">
         <f>'Max Biofuel Blends'!AD$14</f>
-        <v>0.82758620689655515</v>
+        <v>0.83333333333334281</v>
       </c>
       <c r="AE6">
         <f>'Max Biofuel Blends'!AE$14</f>
-        <v>0.86206896551723844</v>
+        <v>0.86666666666667425</v>
       </c>
       <c r="AF6">
         <f>'Max Biofuel Blends'!AF$14</f>
-        <v>0.89655172413793593</v>
+        <v>0.90000000000000568</v>
       </c>
       <c r="AG6">
         <f>'Max Biofuel Blends'!AG$14</f>
-        <v>0.93103448275861922</v>
+        <v>0.93333333333333712</v>
       </c>
       <c r="AH6">
         <f>'Max Biofuel Blends'!AH$14</f>
-        <v>0.9655172413793025</v>
+        <v>0.96666666666666856</v>
       </c>
       <c r="AI6">
         <f>'Max Biofuel Blends'!AI$14</f>
@@ -54134,115 +54134,115 @@
       </c>
       <c r="G7">
         <f>'Max Biofuel Blends'!G$14</f>
-        <v>3.4482758620683285E-2</v>
+        <v>6.6666666666677088E-2</v>
       </c>
       <c r="H7">
         <f>'Max Biofuel Blends'!H$14</f>
-        <v>6.896551724138078E-2</v>
+        <v>0.10000000000000853</v>
       </c>
       <c r="I7">
         <f>'Max Biofuel Blends'!I$14</f>
-        <v>0.10344827586206407</v>
+        <v>0.13333333333333997</v>
       </c>
       <c r="J7">
         <f>'Max Biofuel Blends'!J$14</f>
-        <v>0.13793103448276156</v>
+        <v>0.1666666666666714</v>
       </c>
       <c r="K7">
         <f>'Max Biofuel Blends'!K$14</f>
-        <v>0.17241379310344485</v>
+        <v>0.20000000000000284</v>
       </c>
       <c r="L7">
         <f>'Max Biofuel Blends'!L$14</f>
-        <v>0.20689655172414234</v>
+        <v>0.23333333333333428</v>
       </c>
       <c r="M7">
         <f>'Max Biofuel Blends'!M$14</f>
-        <v>0.24137931034482563</v>
+        <v>0.26666666666666572</v>
       </c>
       <c r="N7">
         <f>'Max Biofuel Blends'!N$14</f>
-        <v>0.27586206896550891</v>
+        <v>0.29999999999999716</v>
       </c>
       <c r="O7">
         <f>'Max Biofuel Blends'!O$14</f>
-        <v>0.31034482758620641</v>
+        <v>0.33333333333334281</v>
       </c>
       <c r="P7">
         <f>'Max Biofuel Blends'!P$14</f>
-        <v>0.34482758620688969</v>
+        <v>0.36666666666667425</v>
       </c>
       <c r="Q7">
         <f>'Max Biofuel Blends'!Q$14</f>
-        <v>0.37931034482758719</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="R7">
         <f>'Max Biofuel Blends'!R$14</f>
-        <v>0.41379310344827047</v>
+        <v>0.43333333333333712</v>
       </c>
       <c r="S7">
         <f>'Max Biofuel Blends'!S$14</f>
-        <v>0.44827586206896797</v>
+        <v>0.46666666666666856</v>
       </c>
       <c r="T7">
         <f>'Max Biofuel Blends'!T$14</f>
-        <v>0.48275862068965125</v>
+        <v>0.5</v>
       </c>
       <c r="U7">
         <f>'Max Biofuel Blends'!U$14</f>
-        <v>0.51724137931034875</v>
+        <v>0.53333333333333144</v>
       </c>
       <c r="V7">
         <f>'Max Biofuel Blends'!V$14</f>
-        <v>0.55172413793103203</v>
+        <v>0.56666666666667709</v>
       </c>
       <c r="W7">
         <f>'Max Biofuel Blends'!W$14</f>
-        <v>0.58620689655172953</v>
+        <v>0.60000000000000853</v>
       </c>
       <c r="X7">
         <f>'Max Biofuel Blends'!X$14</f>
-        <v>0.62068965517241281</v>
+        <v>0.63333333333333997</v>
       </c>
       <c r="Y7">
         <f>'Max Biofuel Blends'!Y$14</f>
-        <v>0.6551724137930961</v>
+        <v>0.6666666666666714</v>
       </c>
       <c r="Z7">
         <f>'Max Biofuel Blends'!Z$14</f>
-        <v>0.68965517241379359</v>
+        <v>0.70000000000000284</v>
       </c>
       <c r="AA7">
         <f>'Max Biofuel Blends'!AA$14</f>
-        <v>0.72413793103447688</v>
+        <v>0.73333333333333428</v>
       </c>
       <c r="AB7">
         <f>'Max Biofuel Blends'!AB$14</f>
-        <v>0.75862068965517437</v>
+        <v>0.76666666666666572</v>
       </c>
       <c r="AC7">
         <f>'Max Biofuel Blends'!AC$14</f>
-        <v>0.79310344827585766</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="AD7">
         <f>'Max Biofuel Blends'!AD$14</f>
-        <v>0.82758620689655515</v>
+        <v>0.83333333333334281</v>
       </c>
       <c r="AE7">
         <f>'Max Biofuel Blends'!AE$14</f>
-        <v>0.86206896551723844</v>
+        <v>0.86666666666667425</v>
       </c>
       <c r="AF7">
         <f>'Max Biofuel Blends'!AF$14</f>
-        <v>0.89655172413793593</v>
+        <v>0.90000000000000568</v>
       </c>
       <c r="AG7">
         <f>'Max Biofuel Blends'!AG$14</f>
-        <v>0.93103448275861922</v>
+        <v>0.93333333333333712</v>
       </c>
       <c r="AH7">
         <f>'Max Biofuel Blends'!AH$14</f>
-        <v>0.9655172413793025</v>
+        <v>0.96666666666666856</v>
       </c>
       <c r="AI7">
         <f>'Max Biofuel Blends'!AI$14</f>
@@ -60126,115 +60126,115 @@
       </c>
       <c r="G6">
         <f>'Max Biofuel Blends'!G$14</f>
-        <v>3.4482758620683285E-2</v>
+        <v>6.6666666666677088E-2</v>
       </c>
       <c r="H6">
         <f>'Max Biofuel Blends'!H$14</f>
-        <v>6.896551724138078E-2</v>
+        <v>0.10000000000000853</v>
       </c>
       <c r="I6">
         <f>'Max Biofuel Blends'!I$14</f>
-        <v>0.10344827586206407</v>
+        <v>0.13333333333333997</v>
       </c>
       <c r="J6">
         <f>'Max Biofuel Blends'!J$14</f>
-        <v>0.13793103448276156</v>
+        <v>0.1666666666666714</v>
       </c>
       <c r="K6">
         <f>'Max Biofuel Blends'!K$14</f>
-        <v>0.17241379310344485</v>
+        <v>0.20000000000000284</v>
       </c>
       <c r="L6">
         <f>'Max Biofuel Blends'!L$14</f>
-        <v>0.20689655172414234</v>
+        <v>0.23333333333333428</v>
       </c>
       <c r="M6">
         <f>'Max Biofuel Blends'!M$14</f>
-        <v>0.24137931034482563</v>
+        <v>0.26666666666666572</v>
       </c>
       <c r="N6">
         <f>'Max Biofuel Blends'!N$14</f>
-        <v>0.27586206896550891</v>
+        <v>0.29999999999999716</v>
       </c>
       <c r="O6">
         <f>'Max Biofuel Blends'!O$14</f>
-        <v>0.31034482758620641</v>
+        <v>0.33333333333334281</v>
       </c>
       <c r="P6">
         <f>'Max Biofuel Blends'!P$14</f>
-        <v>0.34482758620688969</v>
+        <v>0.36666666666667425</v>
       </c>
       <c r="Q6">
         <f>'Max Biofuel Blends'!Q$14</f>
-        <v>0.37931034482758719</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="R6">
         <f>'Max Biofuel Blends'!R$14</f>
-        <v>0.41379310344827047</v>
+        <v>0.43333333333333712</v>
       </c>
       <c r="S6">
         <f>'Max Biofuel Blends'!S$14</f>
-        <v>0.44827586206896797</v>
+        <v>0.46666666666666856</v>
       </c>
       <c r="T6">
         <f>'Max Biofuel Blends'!T$14</f>
-        <v>0.48275862068965125</v>
+        <v>0.5</v>
       </c>
       <c r="U6">
         <f>'Max Biofuel Blends'!U$14</f>
-        <v>0.51724137931034875</v>
+        <v>0.53333333333333144</v>
       </c>
       <c r="V6">
         <f>'Max Biofuel Blends'!V$14</f>
-        <v>0.55172413793103203</v>
+        <v>0.56666666666667709</v>
       </c>
       <c r="W6">
         <f>'Max Biofuel Blends'!W$14</f>
-        <v>0.58620689655172953</v>
+        <v>0.60000000000000853</v>
       </c>
       <c r="X6">
         <f>'Max Biofuel Blends'!X$14</f>
-        <v>0.62068965517241281</v>
+        <v>0.63333333333333997</v>
       </c>
       <c r="Y6">
         <f>'Max Biofuel Blends'!Y$14</f>
-        <v>0.6551724137930961</v>
+        <v>0.6666666666666714</v>
       </c>
       <c r="Z6">
         <f>'Max Biofuel Blends'!Z$14</f>
-        <v>0.68965517241379359</v>
+        <v>0.70000000000000284</v>
       </c>
       <c r="AA6">
         <f>'Max Biofuel Blends'!AA$14</f>
-        <v>0.72413793103447688</v>
+        <v>0.73333333333333428</v>
       </c>
       <c r="AB6">
         <f>'Max Biofuel Blends'!AB$14</f>
-        <v>0.75862068965517437</v>
+        <v>0.76666666666666572</v>
       </c>
       <c r="AC6">
         <f>'Max Biofuel Blends'!AC$14</f>
-        <v>0.79310344827585766</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="AD6">
         <f>'Max Biofuel Blends'!AD$14</f>
-        <v>0.82758620689655515</v>
+        <v>0.83333333333334281</v>
       </c>
       <c r="AE6">
         <f>'Max Biofuel Blends'!AE$14</f>
-        <v>0.86206896551723844</v>
+        <v>0.86666666666667425</v>
       </c>
       <c r="AF6">
         <f>'Max Biofuel Blends'!AF$14</f>
-        <v>0.89655172413793593</v>
+        <v>0.90000000000000568</v>
       </c>
       <c r="AG6">
         <f>'Max Biofuel Blends'!AG$14</f>
-        <v>0.93103448275861922</v>
+        <v>0.93333333333333712</v>
       </c>
       <c r="AH6">
         <f>'Max Biofuel Blends'!AH$14</f>
-        <v>0.9655172413793025</v>
+        <v>0.96666666666666856</v>
       </c>
       <c r="AI6">
         <f>'Max Biofuel Blends'!AI$14</f>
@@ -61463,115 +61463,115 @@
       </c>
       <c r="G7">
         <f>'Max Biofuel Blends'!G$14</f>
-        <v>3.4482758620683285E-2</v>
+        <v>6.6666666666677088E-2</v>
       </c>
       <c r="H7">
         <f>'Max Biofuel Blends'!H$14</f>
-        <v>6.896551724138078E-2</v>
+        <v>0.10000000000000853</v>
       </c>
       <c r="I7">
         <f>'Max Biofuel Blends'!I$14</f>
-        <v>0.10344827586206407</v>
+        <v>0.13333333333333997</v>
       </c>
       <c r="J7">
         <f>'Max Biofuel Blends'!J$14</f>
-        <v>0.13793103448276156</v>
+        <v>0.1666666666666714</v>
       </c>
       <c r="K7">
         <f>'Max Biofuel Blends'!K$14</f>
-        <v>0.17241379310344485</v>
+        <v>0.20000000000000284</v>
       </c>
       <c r="L7">
         <f>'Max Biofuel Blends'!L$14</f>
-        <v>0.20689655172414234</v>
+        <v>0.23333333333333428</v>
       </c>
       <c r="M7">
         <f>'Max Biofuel Blends'!M$14</f>
-        <v>0.24137931034482563</v>
+        <v>0.26666666666666572</v>
       </c>
       <c r="N7">
         <f>'Max Biofuel Blends'!N$14</f>
-        <v>0.27586206896550891</v>
+        <v>0.29999999999999716</v>
       </c>
       <c r="O7">
         <f>'Max Biofuel Blends'!O$14</f>
-        <v>0.31034482758620641</v>
+        <v>0.33333333333334281</v>
       </c>
       <c r="P7">
         <f>'Max Biofuel Blends'!P$14</f>
-        <v>0.34482758620688969</v>
+        <v>0.36666666666667425</v>
       </c>
       <c r="Q7">
         <f>'Max Biofuel Blends'!Q$14</f>
-        <v>0.37931034482758719</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="R7">
         <f>'Max Biofuel Blends'!R$14</f>
-        <v>0.41379310344827047</v>
+        <v>0.43333333333333712</v>
       </c>
       <c r="S7">
         <f>'Max Biofuel Blends'!S$14</f>
-        <v>0.44827586206896797</v>
+        <v>0.46666666666666856</v>
       </c>
       <c r="T7">
         <f>'Max Biofuel Blends'!T$14</f>
-        <v>0.48275862068965125</v>
+        <v>0.5</v>
       </c>
       <c r="U7">
         <f>'Max Biofuel Blends'!U$14</f>
-        <v>0.51724137931034875</v>
+        <v>0.53333333333333144</v>
       </c>
       <c r="V7">
         <f>'Max Biofuel Blends'!V$14</f>
-        <v>0.55172413793103203</v>
+        <v>0.56666666666667709</v>
       </c>
       <c r="W7">
         <f>'Max Biofuel Blends'!W$14</f>
-        <v>0.58620689655172953</v>
+        <v>0.60000000000000853</v>
       </c>
       <c r="X7">
         <f>'Max Biofuel Blends'!X$14</f>
-        <v>0.62068965517241281</v>
+        <v>0.63333333333333997</v>
       </c>
       <c r="Y7">
         <f>'Max Biofuel Blends'!Y$14</f>
-        <v>0.6551724137930961</v>
+        <v>0.6666666666666714</v>
       </c>
       <c r="Z7">
         <f>'Max Biofuel Blends'!Z$14</f>
-        <v>0.68965517241379359</v>
+        <v>0.70000000000000284</v>
       </c>
       <c r="AA7">
         <f>'Max Biofuel Blends'!AA$14</f>
-        <v>0.72413793103447688</v>
+        <v>0.73333333333333428</v>
       </c>
       <c r="AB7">
         <f>'Max Biofuel Blends'!AB$14</f>
-        <v>0.75862068965517437</v>
+        <v>0.76666666666666572</v>
       </c>
       <c r="AC7">
         <f>'Max Biofuel Blends'!AC$14</f>
-        <v>0.79310344827585766</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="AD7">
         <f>'Max Biofuel Blends'!AD$14</f>
-        <v>0.82758620689655515</v>
+        <v>0.83333333333334281</v>
       </c>
       <c r="AE7">
         <f>'Max Biofuel Blends'!AE$14</f>
-        <v>0.86206896551723844</v>
+        <v>0.86666666666667425</v>
       </c>
       <c r="AF7">
         <f>'Max Biofuel Blends'!AF$14</f>
-        <v>0.89655172413793593</v>
+        <v>0.90000000000000568</v>
       </c>
       <c r="AG7">
         <f>'Max Biofuel Blends'!AG$14</f>
-        <v>0.93103448275861922</v>
+        <v>0.93333333333333712</v>
       </c>
       <c r="AH7">
         <f>'Max Biofuel Blends'!AH$14</f>
-        <v>0.9655172413793025</v>
+        <v>0.96666666666666856</v>
       </c>
       <c r="AI7">
         <f>'Max Biofuel Blends'!AI$14</f>
@@ -66189,115 +66189,115 @@
       </c>
       <c r="G6">
         <f>'Max Biofuel Blends'!G$14</f>
-        <v>3.4482758620683285E-2</v>
+        <v>6.6666666666677088E-2</v>
       </c>
       <c r="H6">
         <f>'Max Biofuel Blends'!H$14</f>
-        <v>6.896551724138078E-2</v>
+        <v>0.10000000000000853</v>
       </c>
       <c r="I6">
         <f>'Max Biofuel Blends'!I$14</f>
-        <v>0.10344827586206407</v>
+        <v>0.13333333333333997</v>
       </c>
       <c r="J6">
         <f>'Max Biofuel Blends'!J$14</f>
-        <v>0.13793103448276156</v>
+        <v>0.1666666666666714</v>
       </c>
       <c r="K6">
         <f>'Max Biofuel Blends'!K$14</f>
-        <v>0.17241379310344485</v>
+        <v>0.20000000000000284</v>
       </c>
       <c r="L6">
         <f>'Max Biofuel Blends'!L$14</f>
-        <v>0.20689655172414234</v>
+        <v>0.23333333333333428</v>
       </c>
       <c r="M6">
         <f>'Max Biofuel Blends'!M$14</f>
-        <v>0.24137931034482563</v>
+        <v>0.26666666666666572</v>
       </c>
       <c r="N6">
         <f>'Max Biofuel Blends'!N$14</f>
-        <v>0.27586206896550891</v>
+        <v>0.29999999999999716</v>
       </c>
       <c r="O6">
         <f>'Max Biofuel Blends'!O$14</f>
-        <v>0.31034482758620641</v>
+        <v>0.33333333333334281</v>
       </c>
       <c r="P6">
         <f>'Max Biofuel Blends'!P$14</f>
-        <v>0.34482758620688969</v>
+        <v>0.36666666666667425</v>
       </c>
       <c r="Q6">
         <f>'Max Biofuel Blends'!Q$14</f>
-        <v>0.37931034482758719</v>
+        <v>0.40000000000000568</v>
       </c>
       <c r="R6">
         <f>'Max Biofuel Blends'!R$14</f>
-        <v>0.41379310344827047</v>
+        <v>0.43333333333333712</v>
       </c>
       <c r="S6">
         <f>'Max Biofuel Blends'!S$14</f>
-        <v>0.44827586206896797</v>
+        <v>0.46666666666666856</v>
       </c>
       <c r="T6">
         <f>'Max Biofuel Blends'!T$14</f>
-        <v>0.48275862068965125</v>
+        <v>0.5</v>
       </c>
       <c r="U6">
         <f>'Max Biofuel Blends'!U$14</f>
-        <v>0.51724137931034875</v>
+        <v>0.53333333333333144</v>
       </c>
       <c r="V6">
         <f>'Max Biofuel Blends'!V$14</f>
-        <v>0.55172413793103203</v>
+        <v>0.56666666666667709</v>
       </c>
       <c r="W6">
         <f>'Max Biofuel Blends'!W$14</f>
-        <v>0.58620689655172953</v>
+        <v>0.60000000000000853</v>
       </c>
       <c r="X6">
         <f>'Max Biofuel Blends'!X$14</f>
-        <v>0.62068965517241281</v>
+        <v>0.63333333333333997</v>
       </c>
       <c r="Y6">
         <f>'Max Biofuel Blends'!Y$14</f>
-        <v>0.6551724137930961</v>
+        <v>0.6666666666666714</v>
       </c>
       <c r="Z6">
         <f>'Max Biofuel Blends'!Z$14</f>
-        <v>0.68965517241379359</v>
+        <v>0.70000000000000284</v>
       </c>
       <c r="AA6">
         <f>'Max Biofuel Blends'!AA$14</f>
-        <v>0.72413793103447688</v>
+        <v>0.73333333333333428</v>
       </c>
       <c r="AB6">
         <f>'Max Biofuel Blends'!AB$14</f>
-        <v>0.75862068965517437</v>
+        <v>0.76666666666666572</v>
       </c>
       <c r="AC6">
         <f>'Max Biofuel Blends'!AC$14</f>
-        <v>0.79310344827585766</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="AD6">
         <f>'Max Biofuel Blends'!AD$14</f>
-        <v>0.82758620689655515</v>
+        <v>0.83333333333334281</v>
       </c>
       <c r="AE6">
         <f>'Max Biofuel Blends'!AE$14</f>
-        <v>0.86206896551723844</v>
+        <v>0.86666666666667425</v>
       </c>
       <c r="AF6">
         <f>'Max Biofuel Blends'!AF$14</f>
-        <v>0.89655172413793593</v>
+        <v>0.90000000000000568</v>
       </c>
       <c r="AG6">
         <f>'Max Biofuel Blends'!AG$14</f>
-        <v>0.93103448275861922</v>
+        <v>0.93333333333333712</v>
       </c>
       <c r="AH6">
         <f>'Max Biofuel Blends'!AH$14</f>
-        <v>0.9655172413793025</v>
+        <v>0.96666666666666856</v>
       </c>
       <c r="AI6">
         <f>'Max Biofuel Blends'!AI$14</f>
@@ -66851,8 +66851,8 @@
   </sheetPr>
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:AI7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67528,119 +67528,119 @@
       </c>
       <c r="G7">
         <f>'Max Biofuel Blends'!G$17</f>
-        <v>1.7241379310341642E-2</v>
+        <v>3.9999999999992042E-2</v>
       </c>
       <c r="H7">
         <f>'Max Biofuel Blends'!H$17</f>
-        <v>3.448275862069039E-2</v>
+        <v>5.9999999999995168E-2</v>
       </c>
       <c r="I7">
         <f>'Max Biofuel Blends'!I$17</f>
-        <v>5.1724137931032033E-2</v>
+        <v>7.9999999999998295E-2</v>
       </c>
       <c r="J7">
         <f>'Max Biofuel Blends'!J$17</f>
-        <v>6.896551724138078E-2</v>
+        <v>9.9999999999994316E-2</v>
       </c>
       <c r="K7">
         <f>'Max Biofuel Blends'!K$17</f>
-        <v>8.6206896551722423E-2</v>
+        <v>0.11999999999999744</v>
       </c>
       <c r="L7">
         <f>'Max Biofuel Blends'!L$17</f>
-        <v>0.10344827586207117</v>
+        <v>0.13999999999999346</v>
       </c>
       <c r="M7">
         <f>'Max Biofuel Blends'!M$17</f>
-        <v>0.12068965517241281</v>
+        <v>0.15999999999999659</v>
       </c>
       <c r="N7">
         <f>'Max Biofuel Blends'!N$17</f>
-        <v>0.13793103448275446</v>
+        <v>0.17999999999999261</v>
       </c>
       <c r="O7">
         <f>'Max Biofuel Blends'!O$17</f>
-        <v>0.1551724137931032</v>
+        <v>0.19999999999999574</v>
       </c>
       <c r="P7">
         <f>'Max Biofuel Blends'!P$17</f>
-        <v>0.17241379310344485</v>
+        <v>0.21999999999999176</v>
       </c>
       <c r="Q7">
         <f>'Max Biofuel Blends'!Q$17</f>
-        <v>0.18965517241379359</v>
+        <v>0.23999999999999488</v>
       </c>
       <c r="R7">
         <f>'Max Biofuel Blends'!R$17</f>
-        <v>0.20689655172413524</v>
+        <v>0.25999999999999801</v>
       </c>
       <c r="S7">
         <f>'Max Biofuel Blends'!S$17</f>
-        <v>0.22413793103448398</v>
+        <v>0.27999999999999403</v>
       </c>
       <c r="T7">
         <f>'Max Biofuel Blends'!T$17</f>
-        <v>0.24137931034482563</v>
+        <v>0.29999999999999716</v>
       </c>
       <c r="U7">
         <f>'Max Biofuel Blends'!U$17</f>
-        <v>0.25862068965517437</v>
+        <v>0.31999999999999318</v>
       </c>
       <c r="V7">
         <f>'Max Biofuel Blends'!V$17</f>
-        <v>0.27586206896551602</v>
+        <v>0.33999999999999631</v>
       </c>
       <c r="W7">
         <f>'Max Biofuel Blends'!W$17</f>
-        <v>0.29310344827586476</v>
+        <v>0.35999999999999233</v>
       </c>
       <c r="X7">
         <f>'Max Biofuel Blends'!X$17</f>
-        <v>0.31034482758620641</v>
+        <v>0.37999999999999545</v>
       </c>
       <c r="Y7">
         <f>'Max Biofuel Blends'!Y$17</f>
-        <v>0.32758620689654805</v>
+        <v>0.39999999999999858</v>
       </c>
       <c r="Z7">
         <f>'Max Biofuel Blends'!Z$17</f>
-        <v>0.3448275862068968</v>
+        <v>0.4199999999999946</v>
       </c>
       <c r="AA7">
         <f>'Max Biofuel Blends'!AA$17</f>
-        <v>0.36206896551723844</v>
+        <v>0.43999999999999773</v>
       </c>
       <c r="AB7">
         <f>'Max Biofuel Blends'!AB$17</f>
-        <v>0.37931034482758719</v>
+        <v>0.45999999999999375</v>
       </c>
       <c r="AC7">
         <f>'Max Biofuel Blends'!AC$17</f>
-        <v>0.39655172413792883</v>
+        <v>0.47999999999999687</v>
       </c>
       <c r="AD7">
         <f>'Max Biofuel Blends'!AD$17</f>
-        <v>0.41379310344827758</v>
+        <v>0.49999999999999289</v>
       </c>
       <c r="AE7">
         <f>'Max Biofuel Blends'!AE$17</f>
-        <v>0.43103448275861922</v>
+        <v>0.51999999999999602</v>
       </c>
       <c r="AF7">
         <f>'Max Biofuel Blends'!AF$17</f>
-        <v>0.44827586206896797</v>
+        <v>0.53999999999999204</v>
       </c>
       <c r="AG7">
         <f>'Max Biofuel Blends'!AG$17</f>
-        <v>0.46551724137930961</v>
+        <v>0.55999999999999517</v>
       </c>
       <c r="AH7">
         <f>'Max Biofuel Blends'!AH$17</f>
-        <v>0.48275862068965125</v>
+        <v>0.57999999999999829</v>
       </c>
       <c r="AI7">
         <f>'Max Biofuel Blends'!AI$17</f>
-        <v>0.5</v>
+        <v>0.59999999999999432</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
